--- a/src/main/resources/data/disponibilidades/disponibilidades_07 14 a 20 2025.xlsx
+++ b/src/main/resources/data/disponibilidades/disponibilidades_07 14 a 20 2025.xlsx
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -192,6 +192,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
@@ -356,11 +367,11 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="17"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
